--- a/error/new/fabric_batch_size/fabric_batch_size.xlsx
+++ b/error/new/fabric_batch_size/fabric_batch_size.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>epochs</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>val</t>
   </si>
   <si>
     <t>test</t>
@@ -63,82 +57,70 @@
     <t>bs128</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>bs1_training</t>
   </si>
   <si>
-    <t>99.74</t>
+    <t>bs1_validation</t>
   </si>
   <si>
-    <t>96.43</t>
+    <t>bs2_training</t>
   </si>
   <si>
-    <t>75.00</t>
+    <t>bs2_validation</t>
   </si>
   <si>
-    <t>100.00</t>
+    <t>bs4_training</t>
   </si>
   <si>
-    <t>99.61</t>
+    <t>bs4_validation</t>
   </si>
   <si>
-    <t>97.32</t>
+    <t>bs8_training</t>
   </si>
   <si>
-    <t>81.25</t>
+    <t>bs8_validation</t>
   </si>
   <si>
-    <t>99.11</t>
+    <t>bs16_training</t>
   </si>
   <si>
-    <t>93.75</t>
+    <t>bs16_validation</t>
   </si>
   <si>
-    <t>99.96</t>
+    <t>bs32_training</t>
   </si>
   <si>
-    <t>98.07</t>
+    <t>bs32_validation</t>
   </si>
   <si>
-    <t>94.98</t>
+    <t>bs64_training</t>
   </si>
   <si>
-    <t>92.86</t>
+    <t>bs64_validation</t>
   </si>
   <si>
-    <t>56.25</t>
+    <t>bs128_training</t>
   </si>
   <si>
-    <t>81.51</t>
+    <t>bs128_validation</t>
   </si>
   <si>
-    <t>79.15</t>
+    <t xml:space="preserve">Batch Size    </t>
   </si>
   <si>
-    <t>78.57</t>
+    <t xml:space="preserve">Accuracy </t>
   </si>
   <si>
-    <t>61.35</t>
+    <t xml:space="preserve">Epochs        </t>
   </si>
   <si>
-    <t>62.93</t>
+    <t xml:space="preserve">Time (s)      </t>
   </si>
   <si>
-    <t>58.93</t>
+    <t>GPU Memory (MB)</t>
   </si>
   <si>
-    <t>99.69</t>
-  </si>
-  <si>
-    <t>98.46</t>
-  </si>
-  <si>
-    <t>95.54</t>
-  </si>
-  <si>
-    <t>94.64</t>
-  </si>
-  <si>
-    <t>62.50</t>
+    <t>Memory (MB)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,9 +217,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,12 +242,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,6 +257,1421 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1"/>
+              <a:t>Batch size impact on the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1" baseline="0"/>
+              <a:t> fabric dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1600" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$D$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$D$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>99.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13FC-4477-902D-7D8C3B3A5A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="258506032"/>
+        <c:axId val="258504392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Epochs        </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$D$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13FC-4477-902D-7D8C3B3A5A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (s)      </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$D$17:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>150.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>273.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-13FC-4477-902D-7D8C3B3A5A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="258504720"/>
+        <c:axId val="404290064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="258506032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Batch size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258504392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="258504392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258506032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404290064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Epohcs</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="en-GB"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="258504720"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="258504720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="404290064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>389468</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>118535</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE721FE4-DD67-4D55-BD3F-664D31FBD9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,178 +1939,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:Q9"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="9" width="8.88671875" style="10"/>
-    <col min="10" max="10" width="8.88671875" style="9"/>
-    <col min="11" max="12" width="8.88671875" style="10"/>
-    <col min="13" max="13" width="8.88671875" style="11"/>
-    <col min="14" max="14" width="8.88671875" style="9"/>
-    <col min="15" max="16" width="8.88671875" style="10"/>
-    <col min="17" max="17" width="8.88671875" style="11"/>
-    <col min="18" max="18" width="8.88671875" style="9"/>
-    <col min="19" max="20" width="8.88671875" style="10"/>
-    <col min="21" max="21" width="8.88671875" style="11"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="5"/>
+    <col min="7" max="9" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="8.88671875" style="5"/>
+    <col min="11" max="12" width="8.88671875" style="6"/>
+    <col min="13" max="13" width="8.88671875" style="7"/>
+    <col min="14" max="14" width="8.88671875" style="5"/>
+    <col min="15" max="16" width="8.88671875" style="6"/>
+    <col min="17" max="17" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="8.88671875" style="5"/>
+    <col min="19" max="20" width="8.88671875" style="6"/>
+    <col min="21" max="21" width="8.88671875" style="7"/>
+    <col min="22" max="22" width="8.88671875" style="5"/>
+    <col min="23" max="24" width="8.88671875" style="6"/>
+    <col min="25" max="25" width="8.88671875" style="7"/>
+    <col min="26" max="26" width="8.88671875" style="5"/>
+    <col min="27" max="28" width="8.88671875" style="6"/>
+    <col min="29" max="29" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
@@ -722,41 +2136,89 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>14</v>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>97.5</v>
@@ -778,41 +2240,89 @@
       <c r="E4">
         <v>75</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>14</v>
+      <c r="F4" s="5">
+        <v>98.07</v>
+      </c>
+      <c r="G4" s="6">
+        <v>94.98</v>
+      </c>
+      <c r="H4" s="6">
+        <v>92.86</v>
+      </c>
+      <c r="I4" s="6">
+        <v>56.25</v>
+      </c>
+      <c r="J4" s="5">
+        <v>81.510000000000005</v>
+      </c>
+      <c r="K4" s="6">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="L4" s="6">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>61.35</v>
+      </c>
+      <c r="O4" s="6">
+        <v>62.93</v>
+      </c>
+      <c r="P4" s="6">
+        <v>58.93</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>53.07</v>
+      </c>
+      <c r="S4" s="6">
+        <v>51.35</v>
+      </c>
+      <c r="T4" s="6">
+        <v>49.11</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="W4" s="6">
+        <v>17.37</v>
+      </c>
+      <c r="X4" s="6">
+        <v>18.75</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>12.14</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>12.36</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>9.82</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.44</v>
+      </c>
+      <c r="AE4">
+        <v>0.39</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>97.5</v>
@@ -834,41 +2344,89 @@
       <c r="E5">
         <v>81.25</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>21</v>
+      <c r="F5" s="5">
+        <v>99.96</v>
+      </c>
+      <c r="G5" s="6">
+        <v>99.61</v>
+      </c>
+      <c r="H5" s="6">
+        <v>96.43</v>
+      </c>
+      <c r="I5" s="6">
+        <v>75</v>
+      </c>
+      <c r="J5" s="5">
+        <v>100</v>
+      </c>
+      <c r="K5" s="6">
+        <v>100</v>
+      </c>
+      <c r="L5" s="6">
+        <v>96.43</v>
+      </c>
+      <c r="M5" s="7">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5">
+        <v>99.69</v>
+      </c>
+      <c r="O5" s="6">
+        <v>98.46</v>
+      </c>
+      <c r="P5" s="6">
+        <v>95.54</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="R5" s="5">
+        <v>79.14</v>
+      </c>
+      <c r="S5" s="6">
+        <v>76.83</v>
+      </c>
+      <c r="T5" s="6">
+        <v>75</v>
+      </c>
+      <c r="U5" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="V5" s="5">
+        <v>46.1</v>
+      </c>
+      <c r="W5" s="6">
+        <v>44.79</v>
+      </c>
+      <c r="X5" s="6">
+        <v>42.86</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>29.62</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>29.73</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>26.79</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>14.29</v>
+      </c>
+      <c r="AE5">
+        <v>14.29</v>
+      </c>
+      <c r="AF5">
+        <v>14.29</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>97.5</v>
@@ -890,41 +2448,89 @@
       <c r="E6">
         <v>93.75</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>39</v>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+      <c r="G6" s="6">
+        <v>99.61</v>
+      </c>
+      <c r="H6" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="I6" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="J6" s="5">
+        <v>100</v>
+      </c>
+      <c r="K6" s="6">
+        <v>99.61</v>
+      </c>
+      <c r="L6" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="M6" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="N6" s="5">
+        <v>99.74</v>
+      </c>
+      <c r="O6" s="6">
+        <v>98.46</v>
+      </c>
+      <c r="P6" s="6">
+        <v>94.64</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="R6" s="5">
+        <v>98.73</v>
+      </c>
+      <c r="S6" s="6">
+        <v>96.91</v>
+      </c>
+      <c r="T6" s="6">
+        <v>91.96</v>
+      </c>
+      <c r="U6" s="7">
+        <v>56.25</v>
+      </c>
+      <c r="V6" s="5">
+        <v>85.45</v>
+      </c>
+      <c r="W6" s="6">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="X6" s="6">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>65.03</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>62.16</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>60.71</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>21.62</v>
+      </c>
+      <c r="AF6">
+        <v>19.64</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>97.5</v>
@@ -946,41 +2552,89 @@
       <c r="E7">
         <v>93.75</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>21</v>
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <v>100</v>
+      </c>
+      <c r="H7" s="6">
+        <v>99.11</v>
+      </c>
+      <c r="I7" s="6">
+        <v>93.75</v>
+      </c>
+      <c r="J7" s="5">
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <v>100</v>
+      </c>
+      <c r="L7" s="6">
+        <v>100</v>
+      </c>
+      <c r="M7" s="7">
+        <v>100</v>
+      </c>
+      <c r="N7" s="5">
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>99.61</v>
+      </c>
+      <c r="P7" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="R7" s="5">
+        <v>99.69</v>
+      </c>
+      <c r="S7" s="6">
+        <v>98.07</v>
+      </c>
+      <c r="T7" s="6">
+        <v>96.43</v>
+      </c>
+      <c r="U7" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="V7" s="5">
+        <v>96.41</v>
+      </c>
+      <c r="W7" s="6">
+        <v>94.21</v>
+      </c>
+      <c r="X7" s="6">
+        <v>89.29</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>56.25</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>70.290000000000006</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>69.64</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>27.34</v>
+      </c>
+      <c r="AE7">
+        <v>27.8</v>
+      </c>
+      <c r="AF7">
+        <v>23.21</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>97.5</v>
@@ -990,41 +2644,89 @@
       <c r="A8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>23</v>
+      <c r="F8" s="5">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6">
+        <v>100</v>
+      </c>
+      <c r="H8" s="6">
+        <v>99.11</v>
+      </c>
+      <c r="I8" s="6">
+        <v>93.75</v>
+      </c>
+      <c r="J8" s="5">
+        <v>100</v>
+      </c>
+      <c r="K8" s="6">
+        <v>100</v>
+      </c>
+      <c r="L8" s="6">
+        <v>100</v>
+      </c>
+      <c r="M8" s="7">
+        <v>100</v>
+      </c>
+      <c r="N8" s="5">
+        <v>100</v>
+      </c>
+      <c r="O8" s="6">
+        <v>99.61</v>
+      </c>
+      <c r="P8" s="6">
+        <v>99.11</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>93.75</v>
+      </c>
+      <c r="R8" s="5">
+        <v>100</v>
+      </c>
+      <c r="S8" s="6">
+        <v>99.61</v>
+      </c>
+      <c r="T8" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="U8" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="V8" s="5">
+        <v>99.52</v>
+      </c>
+      <c r="W8" s="6">
+        <v>98.07</v>
+      </c>
+      <c r="X8" s="6">
+        <v>93.75</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>77.13</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>47.15</v>
+      </c>
+      <c r="AE8">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="AF8">
+        <v>37.5</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>97.5</v>
@@ -1034,17 +2736,65 @@
       <c r="A9" s="1">
         <v>30</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>23</v>
+      <c r="N9" s="5">
+        <v>100</v>
+      </c>
+      <c r="O9" s="6">
+        <v>99.61</v>
+      </c>
+      <c r="P9" s="6">
+        <v>99.11</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>93.75</v>
+      </c>
+      <c r="R9" s="5">
+        <v>100</v>
+      </c>
+      <c r="S9" s="6">
+        <v>100</v>
+      </c>
+      <c r="T9" s="6">
+        <v>100</v>
+      </c>
+      <c r="U9" s="7">
+        <v>100</v>
+      </c>
+      <c r="V9" s="5">
+        <v>99.87</v>
+      </c>
+      <c r="W9" s="6">
+        <v>98.84</v>
+      </c>
+      <c r="X9" s="6">
+        <v>96.43</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>91.24</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>84.56</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>84.82</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>6.25</v>
+      </c>
+      <c r="AD9">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="AE9">
+        <v>56.76</v>
+      </c>
+      <c r="AF9">
+        <v>59.82</v>
+      </c>
+      <c r="AG9">
+        <v>6.25</v>
       </c>
       <c r="AI9">
         <v>97.5</v>
@@ -1054,6 +2804,54 @@
       <c r="A10" s="1">
         <v>35</v>
       </c>
+      <c r="R10" s="5">
+        <v>100</v>
+      </c>
+      <c r="S10" s="6">
+        <v>100</v>
+      </c>
+      <c r="T10" s="6">
+        <v>100</v>
+      </c>
+      <c r="U10" s="7">
+        <v>100</v>
+      </c>
+      <c r="V10" s="5">
+        <v>100</v>
+      </c>
+      <c r="W10" s="6">
+        <v>99.61</v>
+      </c>
+      <c r="X10" s="6">
+        <v>94.64</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>97.15</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>91.12</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>87.5</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AD10">
+        <v>85.1</v>
+      </c>
+      <c r="AE10">
+        <v>74.52</v>
+      </c>
+      <c r="AF10">
+        <v>75</v>
+      </c>
+      <c r="AG10">
+        <v>12.5</v>
+      </c>
       <c r="AI10">
         <v>97.5</v>
       </c>
@@ -1062,6 +2860,42 @@
       <c r="A11" s="1">
         <v>40</v>
       </c>
+      <c r="V11" s="5">
+        <v>100</v>
+      </c>
+      <c r="W11" s="6">
+        <v>100</v>
+      </c>
+      <c r="X11" s="6">
+        <v>96.43</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>99.65</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>95.75</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>92.86</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>50</v>
+      </c>
+      <c r="AD11">
+        <v>93.34</v>
+      </c>
+      <c r="AE11">
+        <v>83.4</v>
+      </c>
+      <c r="AF11">
+        <v>83.04</v>
+      </c>
+      <c r="AG11">
+        <v>18.75</v>
+      </c>
       <c r="AI11">
         <v>97.5</v>
       </c>
@@ -1070,6 +2904,42 @@
       <c r="A12" s="1">
         <v>45</v>
       </c>
+      <c r="V12" s="5">
+        <v>100</v>
+      </c>
+      <c r="W12" s="6">
+        <v>100</v>
+      </c>
+      <c r="X12" s="6">
+        <v>98.21</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>99.96</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>96.53</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>95.54</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>68.75</v>
+      </c>
+      <c r="AD12">
+        <v>97.41</v>
+      </c>
+      <c r="AE12">
+        <v>91.89</v>
+      </c>
+      <c r="AF12">
+        <v>86.61</v>
+      </c>
+      <c r="AG12">
+        <v>31.25</v>
+      </c>
       <c r="AI12">
         <v>97.5</v>
       </c>
@@ -1078,6 +2948,42 @@
       <c r="A13" s="1">
         <v>50</v>
       </c>
+      <c r="V13" s="5">
+        <v>100</v>
+      </c>
+      <c r="W13" s="6">
+        <v>100</v>
+      </c>
+      <c r="X13" s="6">
+        <v>98.21</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>99.96</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>97.3</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>94.64</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="AD13">
+        <v>98.86</v>
+      </c>
+      <c r="AE13">
+        <v>94.21</v>
+      </c>
+      <c r="AF13">
+        <v>86.61</v>
+      </c>
+      <c r="AG13">
+        <v>31.25</v>
+      </c>
       <c r="AI13">
         <v>97.5</v>
       </c>
@@ -1086,6 +2992,66 @@
       <c r="A14" s="1">
         <v>55</v>
       </c>
+      <c r="C14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4</v>
+      </c>
+      <c r="G14" s="11">
+        <v>8</v>
+      </c>
+      <c r="H14" s="11">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11">
+        <v>32</v>
+      </c>
+      <c r="J14" s="9">
+        <v>64</v>
+      </c>
+      <c r="K14" s="9">
+        <v>128</v>
+      </c>
+      <c r="L14" s="9">
+        <v>256</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="8"/>
+      <c r="Z14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>98.84</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="AD14">
+        <v>99.56</v>
+      </c>
+      <c r="AE14">
+        <v>97.68</v>
+      </c>
+      <c r="AF14">
+        <v>91.07</v>
+      </c>
+      <c r="AG14">
+        <v>62.5</v>
+      </c>
       <c r="AI14">
         <v>97.5</v>
       </c>
@@ -1094,6 +3060,66 @@
       <c r="A15" s="1">
         <v>60</v>
       </c>
+      <c r="C15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="9">
+        <v>99.74</v>
+      </c>
+      <c r="E15" s="9">
+        <v>99.61</v>
+      </c>
+      <c r="F15" s="10">
+        <v>100</v>
+      </c>
+      <c r="G15" s="11">
+        <v>99.87</v>
+      </c>
+      <c r="H15" s="11">
+        <v>99.48</v>
+      </c>
+      <c r="I15" s="11">
+        <v>99.21</v>
+      </c>
+      <c r="J15" s="9">
+        <v>99.34</v>
+      </c>
+      <c r="K15" s="9">
+        <v>99.08</v>
+      </c>
+      <c r="L15" s="9">
+        <v>97.12</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="8"/>
+      <c r="Z15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>98.84</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>95.54</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>68.75</v>
+      </c>
+      <c r="AD15">
+        <v>99.74</v>
+      </c>
+      <c r="AE15">
+        <v>98.84</v>
+      </c>
+      <c r="AF15">
+        <v>92.86</v>
+      </c>
+      <c r="AG15">
+        <v>75</v>
+      </c>
       <c r="AI15">
         <v>97.5</v>
       </c>
@@ -1102,6 +3128,60 @@
       <c r="A16" s="1">
         <v>65</v>
       </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11">
+        <v>20</v>
+      </c>
+      <c r="H16" s="11">
+        <v>25</v>
+      </c>
+      <c r="I16" s="11">
+        <v>40</v>
+      </c>
+      <c r="J16" s="10">
+        <v>60</v>
+      </c>
+      <c r="K16" s="11">
+        <v>180</v>
+      </c>
+      <c r="L16" s="11">
+        <v>410</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>98.84</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="AD16">
+        <v>99.91</v>
+      </c>
+      <c r="AE16">
+        <v>99.61</v>
+      </c>
+      <c r="AF16">
+        <v>93.75</v>
+      </c>
+      <c r="AG16">
+        <v>81.25</v>
+      </c>
       <c r="AI16">
         <v>97.5</v>
       </c>
@@ -1110,6 +3190,60 @@
       <c r="A17" s="1">
         <v>70</v>
       </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9">
+        <v>150.02000000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>72.55</v>
+      </c>
+      <c r="F17" s="10">
+        <v>58.14</v>
+      </c>
+      <c r="G17" s="11">
+        <v>45.79</v>
+      </c>
+      <c r="H17" s="11">
+        <v>37.18</v>
+      </c>
+      <c r="I17" s="11">
+        <v>41.18</v>
+      </c>
+      <c r="J17" s="10">
+        <v>46.13</v>
+      </c>
+      <c r="K17" s="11">
+        <v>122.01</v>
+      </c>
+      <c r="L17" s="11">
+        <v>273.3</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>98.84</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>95.54</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>68.75</v>
+      </c>
+      <c r="AD17">
+        <v>99.91</v>
+      </c>
+      <c r="AE17">
+        <v>99.61</v>
+      </c>
+      <c r="AF17">
+        <v>94.64</v>
+      </c>
+      <c r="AG17">
+        <v>81.25</v>
+      </c>
       <c r="AI17">
         <v>97.5</v>
       </c>
@@ -1118,6 +3252,60 @@
       <c r="A18" s="1">
         <v>75</v>
       </c>
+      <c r="C18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="11">
+        <v>263</v>
+      </c>
+      <c r="E18" s="11">
+        <v>263</v>
+      </c>
+      <c r="F18" s="11">
+        <v>263</v>
+      </c>
+      <c r="G18" s="11">
+        <v>263</v>
+      </c>
+      <c r="H18" s="11">
+        <v>263</v>
+      </c>
+      <c r="I18" s="11">
+        <v>263</v>
+      </c>
+      <c r="J18" s="11">
+        <v>263</v>
+      </c>
+      <c r="K18" s="11">
+        <v>263</v>
+      </c>
+      <c r="L18" s="11">
+        <v>647</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>98.84</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="AD18">
+        <v>99.91</v>
+      </c>
+      <c r="AE18">
+        <v>99.23</v>
+      </c>
+      <c r="AF18">
+        <v>93.75</v>
+      </c>
+      <c r="AG18">
+        <v>62.5</v>
+      </c>
       <c r="AI18">
         <v>97.5</v>
       </c>
@@ -1126,6 +3314,60 @@
       <c r="A19" s="1">
         <v>80</v>
       </c>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1200</v>
+      </c>
+      <c r="L19" s="11">
+        <v>1300</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>99.23</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>97.32</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="AD19">
+        <v>99.96</v>
+      </c>
+      <c r="AE19">
+        <v>99.61</v>
+      </c>
+      <c r="AF19">
+        <v>92.86</v>
+      </c>
+      <c r="AG19">
+        <v>75</v>
+      </c>
       <c r="AI19">
         <v>97.5</v>
       </c>
@@ -1134,6 +3376,30 @@
       <c r="A20" s="1">
         <v>85</v>
       </c>
+      <c r="Z20" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>98.84</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>98.21</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="AD20">
+        <v>100</v>
+      </c>
+      <c r="AE20">
+        <v>99.61</v>
+      </c>
+      <c r="AF20">
+        <v>95.54</v>
+      </c>
+      <c r="AG20">
+        <v>81.25</v>
+      </c>
       <c r="AI20">
         <v>97.5</v>
       </c>
@@ -1142,6 +3408,30 @@
       <c r="A21" s="1">
         <v>90</v>
       </c>
+      <c r="Z21" s="5">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>98.84</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>98.21</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="AD21">
+        <v>100</v>
+      </c>
+      <c r="AE21">
+        <v>99.61</v>
+      </c>
+      <c r="AF21">
+        <v>94.64</v>
+      </c>
+      <c r="AG21">
+        <v>81.25</v>
+      </c>
       <c r="AI21">
         <v>97.5</v>
       </c>
@@ -1150,6 +3440,18 @@
       <c r="A22" s="1">
         <v>95</v>
       </c>
+      <c r="AD22">
+        <v>100</v>
+      </c>
+      <c r="AE22">
+        <v>99.61</v>
+      </c>
+      <c r="AF22">
+        <v>95.54</v>
+      </c>
+      <c r="AG22">
+        <v>87.5</v>
+      </c>
       <c r="AI22">
         <v>97.5</v>
       </c>
@@ -1157,6 +3459,18 @@
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>100</v>
+      </c>
+      <c r="AD23">
+        <v>100</v>
+      </c>
+      <c r="AE23">
+        <v>99.61</v>
+      </c>
+      <c r="AF23">
+        <v>95.54</v>
+      </c>
+      <c r="AG23">
+        <v>87.5</v>
       </c>
       <c r="AI23">
         <v>97.5</v>
@@ -1174,5 +3488,7 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>